--- a/AwardTemplate.xlsx
+++ b/AwardTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMP_KaHinterberger\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE97DDC5-DFA3-4B82-8629-DAF34D73D76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1719307F-88B1-4844-9C36-68150EE849B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3990" windowWidth="28800" windowHeight="15435" xr2:uid="{C6593864-CCF0-4A66-8DD8-AF1AFDE5CA7D}"/>
+    <workbookView xWindow="16095" yWindow="8280" windowWidth="28800" windowHeight="15435" xr2:uid="{C6593864-CCF0-4A66-8DD8-AF1AFDE5CA7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Quarter</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>lastName</t>
+  </si>
+  <si>
+    <t>Program</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5555B4-A867-47FE-AFF9-D9E69CE9330B}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F9" sqref="A2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,9 +418,10 @@
     <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -432,6 +436,9 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
